--- a/umit_files_xlsx/umit_bio.xlsx
+++ b/umit_files_xlsx/umit_bio.xlsx
@@ -2552,12 +2552,12 @@
         <v>137</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболевания, связанные с органами дыхания")</f>
-        <v>Заболевания, связанные с органами дыхания</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция дыхания (нервная, гуморальная)")</f>
+        <v>Регуляция дыхания (нервная, гуморальная)</v>
       </c>
       <c r="F38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
+        <v>238</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Транскрипция")</f>
@@ -2610,12 +2610,12 @@
         <v>138</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция дыхания (нервная, гуморальная)")</f>
-        <v>Регуляция дыхания (нервная, гуморальная)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легочные объемы")</f>
+        <v>Легочные объемы</v>
       </c>
       <c r="F39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
-        <v>238</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трансляция")</f>
@@ -2668,12 +2668,12 @@
         <v>139</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легочные объемы")</f>
-        <v>Легочные объемы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Органы выделительной системы")</f>
+        <v>Органы выделительной системы</v>
       </c>
       <c r="F40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
+        <v>240</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метаболизм клетки")</f>
@@ -2726,12 +2726,12 @@
         <v>140</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Органы выделительной системы")</f>
-        <v>Органы выделительной системы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение почки")</f>
+        <v>Строение почки</v>
       </c>
       <c r="F41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
-        <v>240</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
       </c>
       <c r="G41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Хемосинтез")</f>
@@ -2784,12 +2784,12 @@
         <v>141</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение почки")</f>
-        <v>Строение почки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение нефрона")</f>
+        <v>Строение нефрона</v>
       </c>
       <c r="F42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="G42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация организмов по способу питания")</f>
@@ -2842,12 +2842,12 @@
         <v>142</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение нефрона")</f>
-        <v>Строение нефрона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование мочи")</f>
+        <v>Образование мочи</v>
       </c>
       <c r="F43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
+        <v>243</v>
       </c>
       <c r="G43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анаэробы и аэробы")</f>
@@ -2900,12 +2900,12 @@
         <v>143</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Образование мочи")</f>
-        <v>Образование мочи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция выделения (нервная, гуморальная)")</f>
+        <v>Регуляция выделения (нервная, гуморальная)</v>
       </c>
       <c r="F44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),243.0)</f>
-        <v>243</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="G44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гликолиз и брожение")</f>
@@ -2958,12 +2958,12 @@
         <v>144</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболевания, связанные с выделительной системой")</f>
-        <v>Заболевания, связанные с выделительной системой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение кожи")</f>
+        <v>Строение кожи</v>
       </c>
       <c r="F45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),244.0)</f>
-        <v>244</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
+        <v>246</v>
       </c>
       <c r="G45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кислородное дыхание, цикл Кребса")</f>
@@ -3008,20 +3008,20 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Асцидии и личиночно-хордовые")</f>
-        <v>Асцидии и личиночно-хордовые</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рыбы (общая характеристика)")</f>
+        <v>Рыбы (общая характеристика)</v>
       </c>
       <c r="D46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция выделения (нервная, гуморальная)")</f>
-        <v>Регуляция выделения (нервная, гуморальная)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции кожи")</f>
+        <v>Функции кожи</v>
       </c>
       <c r="F46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
       </c>
       <c r="G46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Световая стадия фотосинтеза")</f>
@@ -3066,20 +3066,20 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рыбы (общая характеристика)")</f>
-        <v>Рыбы (общая характеристика)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутреннее строение рыб")</f>
+        <v>Внутреннее строение рыб</v>
       </c>
       <c r="D47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение кожи")</f>
-        <v>Строение кожи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение зубов человека")</f>
+        <v>Строение зубов человека</v>
       </c>
       <c r="F47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),246.0)</f>
-        <v>246</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="G47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Темновая стадия фотосинтеза")</f>
@@ -3124,20 +3124,20 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутреннее строение рыб")</f>
-        <v>Внутреннее строение рыб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности хрящевых рыб")</f>
+        <v>Особенности хрящевых рыб</v>
       </c>
       <c r="D48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
-        <v>147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции кожи")</f>
-        <v>Функции кожи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищеварение в ротовой полости")</f>
+        <v>Пищеварение в ротовой полости</v>
       </c>
       <c r="F48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
+        <v>249</v>
       </c>
       <c r="G48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы размножения")</f>
@@ -3182,20 +3182,20 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности хрящевых рыб")</f>
-        <v>Особенности хрящевых рыб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности костных рыб")</f>
+        <v>Особенности костных рыб</v>
       </c>
       <c r="D49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение зубов человека")</f>
-        <v>Строение зубов человека</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевод и желудок")</f>
+        <v>Пищевод и желудок</v>
       </c>
       <c r="F49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="G49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Митоз")</f>
@@ -3240,28 +3240,28 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности костных рыб")</f>
-        <v>Особенности костных рыб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие костных рыб")</f>
+        <v>Разнообразие костных рыб</v>
       </c>
       <c r="D50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищеварение в ротовой полости")</f>
-        <v>Пищеварение в ротовой полости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тонкая кишка")</f>
+        <v>Тонкая кишка</v>
       </c>
       <c r="F50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
-        <v>249</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Амитоз")</f>
-        <v>Амитоз</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мейоз")</f>
+        <v>Мейоз</v>
       </c>
       <c r="H50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теории биогенеза")</f>
@@ -3298,28 +3298,28 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие костных рыб")</f>
-        <v>Разнообразие костных рыб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у рыб")</f>
+        <v>Приспособление к среде у рыб</v>
       </c>
       <c r="D51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевод и желудок")</f>
-        <v>Пищевод и желудок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Толстая кишка")</f>
+        <v>Толстая кишка</v>
       </c>
       <c r="F51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
+        <v>252</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мейоз")</f>
-        <v>Мейоз</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл клетки")</f>
+        <v>Жизненный цикл клетки</v>
       </c>
       <c r="H51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теории абиогенеза")</f>
@@ -3356,28 +3356,28 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у рыб")</f>
-        <v>Приспособление к среде у рыб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кистеперые рыбы, ихтиостеги")</f>
+        <v>Кистеперые рыбы, ихтиостеги</v>
       </c>
       <c r="D52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тонкая кишка")</f>
-        <v>Тонкая кишка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Печень и желчный пузырь")</f>
+        <v>Печень и желчный пузырь</v>
       </c>
       <c r="F52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл клетки")</f>
-        <v>Жизненный цикл клетки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гаметогенез")</f>
+        <v>Гаметогенез</v>
       </c>
       <c r="H52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Происхождение жизни")</f>
@@ -3414,28 +3414,28 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кистеперые рыбы, ихтиостеги")</f>
-        <v>Кистеперые рыбы, ихтиостеги</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение земноводных")</f>
+        <v>Внешнее строение земноводных</v>
       </c>
       <c r="D53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
-        <v>152</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Толстая кишка")</f>
-        <v>Толстая кишка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поджелудочная железа")</f>
+        <v>Поджелудочная железа</v>
       </c>
       <c r="F53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гаметогенез")</f>
-        <v>Гаметогенез</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение гамет")</f>
+        <v>Строение гамет</v>
       </c>
       <c r="H53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),353.0)</f>
+        <v>353</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Абиогенез, эксперимент Юри-Миллера")</f>
@@ -3472,28 +3472,28 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение земноводных")</f>
-        <v>Внешнее строение земноводных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение земноводных")</f>
+        <v>Внутренние строение земноводных</v>
       </c>
       <c r="D54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),154.0)</f>
+        <v>154</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Печень и желчный пузырь")</f>
-        <v>Печень и желчный пузырь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция пищеварения (нервная, гуморальная)")</f>
+        <v>Регуляция пищеварения (нервная, гуморальная)</v>
       </c>
       <c r="F54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение гамет")</f>
-        <v>Строение гамет</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эмбриогенез")</f>
+        <v>Эмбриогенез</v>
       </c>
       <c r="H54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),353.0)</f>
-        <v>353</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354.0)</f>
+        <v>354</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок усложнения живых систем")</f>
@@ -3530,28 +3530,28 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение земноводных")</f>
-        <v>Внутренние строение земноводных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие земноводных")</f>
+        <v>Разнообразие земноводных</v>
       </c>
       <c r="D55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),154.0)</f>
-        <v>154</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
+        <v>155</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поджелудочная железа")</f>
-        <v>Поджелудочная железа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Павлова")</f>
+        <v>Опыты Павлова</v>
       </c>
       <c r="F55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
+        <v>256</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эмбриогенез")</f>
-        <v>Эмбриогенез</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бластула, Гаструла, Нейрула")</f>
+        <v>Бластула, Гаструла, Нейрула</v>
       </c>
       <c r="H55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354.0)</f>
-        <v>354</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
+        <v>355</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геохронология")</f>
@@ -3588,28 +3588,28 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие земноводных")</f>
-        <v>Разнообразие земноводных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у амфибий")</f>
+        <v>Приспособление к среде у амфибий</v>
       </c>
       <c r="D56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156.0)</f>
+        <v>156</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Регуляция пищеварения (нервная, гуморальная)")</f>
-        <v>Регуляция пищеварения (нервная, гуморальная)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Витамины")</f>
+        <v>Витамины</v>
       </c>
       <c r="F56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
+        <v>257</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бластула, Гаструла, Нейрула")</f>
-        <v>Бластула, Гаструла, Нейрула</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Органогенез")</f>
+        <v>Органогенез</v>
       </c>
       <c r="H56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
-        <v>355</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.0)</f>
+        <v>356</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы селекции и биотехнологии")</f>
@@ -3646,28 +3646,28 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у амфибий")</f>
-        <v>Приспособление к среде у амфибий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стегоцефалы")</f>
+        <v>Стегоцефалы</v>
       </c>
       <c r="D57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156.0)</f>
-        <v>156</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опыты Павлова")</f>
-        <v>Опыты Павлова</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белки, жиры, углеводы")</f>
+        <v>Белки, жиры, углеводы</v>
       </c>
       <c r="F57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),256.0)</f>
-        <v>256</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Органогенез")</f>
-        <v>Органогенез</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Онтогенез и филогенез")</f>
+        <v>Онтогенез и филогенез</v>
       </c>
       <c r="H57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.0)</f>
-        <v>356</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
+        <v>357</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антипараллельность")</f>
@@ -3704,28 +3704,28 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стегоцефалы")</f>
-        <v>Стегоцефалы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение пресмыкающихся")</f>
+        <v>Внешнее строение пресмыкающихся</v>
       </c>
       <c r="D58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),158.0)</f>
+        <v>158</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Витамины")</f>
-        <v>Витамины</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гормоны")</f>
+        <v>Гормоны</v>
       </c>
       <c r="F58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
-        <v>257</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Онтогенез и филогенез")</f>
-        <v>Онтогенез и филогенез</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Генетический код, его свойства")</f>
+        <v>Генетический код, его свойства</v>
       </c>
       <c r="H58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
-        <v>357</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358.0)</f>
+        <v>358</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарное деление клетки")</f>
@@ -3762,28 +3762,28 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение пресмыкающихся")</f>
-        <v>Внешнее строение пресмыкающихся</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутреннее строение пресмыкающихся")</f>
+        <v>Внутреннее строение пресмыкающихся</v>
       </c>
       <c r="D59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),158.0)</f>
-        <v>158</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
+        <v>159</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Белки, жиры, углеводы")</f>
-        <v>Белки, жиры, углеводы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эндокринные железы")</f>
+        <v>Эндокринные железы</v>
       </c>
       <c r="F59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Генетический код, его свойства")</f>
-        <v>Генетический код, его свойства</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные понятия генетики")</f>
+        <v>Основные понятия генетики</v>
       </c>
       <c r="H59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358.0)</f>
-        <v>358</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
+        <v>359</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции плавательного пузыря у рыб")</f>
@@ -3820,28 +3820,28 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутреннее строение пресмыкающихся")</f>
-        <v>Внутреннее строение пресмыкающихся</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие пресмыкающихся")</f>
+        <v>Разнообразие пресмыкающихся</v>
       </c>
       <c r="D60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
-        <v>159</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
+        <v>160</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гормоны")</f>
-        <v>Гормоны</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Железы смешанной секреции")</f>
+        <v>Железы смешанной секреции</v>
       </c>
       <c r="F60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные понятия генетики")</f>
-        <v>Основные понятия генетики</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы Менделя")</f>
+        <v>Законы Менделя</v>
       </c>
       <c r="H60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
-        <v>359</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция нервной системы")</f>
@@ -3878,28 +3878,28 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие пресмыкающихся")</f>
-        <v>Разнообразие пресмыкающихся</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у рептилий")</f>
+        <v>Приспособление к среде у рептилий</v>
       </c>
       <c r="D61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
-        <v>160</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
+        <v>161</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эндокринные железы")</f>
-        <v>Эндокринные железы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение и виды нейронов")</f>
+        <v>Строение и виды нейронов</v>
       </c>
       <c r="F61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Законы Менделя")</f>
-        <v>Законы Менделя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное и неполное сцепление")</f>
+        <v>Полное и неполное сцепление</v>
       </c>
       <c r="H61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция кровеносной системы")</f>
@@ -3936,28 +3936,28 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у рептилий")</f>
-        <v>Приспособление к среде у рептилий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Археоптерикс")</f>
+        <v>Археоптерикс</v>
       </c>
       <c r="D62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Железы смешанной секреции")</f>
-        <v>Железы смешанной секреции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация нервной системы")</f>
+        <v>Классификация нервной системы</v>
       </c>
       <c r="F62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полное и неполное сцепление")</f>
-        <v>Полное и неполное сцепление</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория Моргана")</f>
+        <v>Теория Моргана</v>
       </c>
       <c r="H62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),362.0)</f>
+        <v>362</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция опорно-двигательного аппарата")</f>
@@ -3994,28 +3994,28 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Археоптерикс")</f>
-        <v>Археоптерикс</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение птиц")</f>
+        <v>Внешнее строение птиц</v>
       </c>
       <c r="D63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение и виды нейронов")</f>
-        <v>Строение и виды нейронов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение спинного мозга")</f>
+        <v>Строение спинного мозга</v>
       </c>
       <c r="F63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
+        <v>264</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теория Моргана")</f>
-        <v>Теория Моргана</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морганиды")</f>
+        <v>Морганиды</v>
       </c>
       <c r="H63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),362.0)</f>
-        <v>362</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.0)</f>
+        <v>363</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция дыхательной системы")</f>
@@ -4052,28 +4052,28 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение птиц")</f>
-        <v>Внешнее строение птиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение птиц")</f>
+        <v>Внутренние строение птиц</v>
       </c>
       <c r="D64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация нервной системы")</f>
-        <v>Классификация нервной системы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение головного мозга")</f>
+        <v>Строение головного мозга</v>
       </c>
       <c r="F64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морганиды")</f>
-        <v>Морганиды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кодоминирование, группы крови")</f>
+        <v>Кодоминирование, группы крови</v>
       </c>
       <c r="H64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.0)</f>
-        <v>363</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция выделительной системы")</f>
@@ -4110,28 +4110,28 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение птиц")</f>
-        <v>Внутренние строение птиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие птиц")</f>
+        <v>Разнообразие птиц</v>
       </c>
       <c r="D65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),165.0)</f>
+        <v>165</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение спинного мозга")</f>
-        <v>Строение спинного мозга</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рефлекторная дуга")</f>
+        <v>Рефлекторная дуга</v>
       </c>
       <c r="F65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),264.0)</f>
-        <v>264</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кодоминирование, группы крови")</f>
-        <v>Кодоминирование, группы крови</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неполное доминирование")</f>
+        <v>Неполное доминирование</v>
       </c>
       <c r="H65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция пищеварительной системы")</f>
@@ -4168,28 +4168,28 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие птиц")</f>
-        <v>Разнообразие птиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экологические группы птиц")</f>
+        <v>Экологические группы птиц</v>
       </c>
       <c r="D66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),165.0)</f>
-        <v>165</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
+        <v>166</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение головного мозга")</f>
-        <v>Строение головного мозга</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Симпатический и парасимпатический отделы нервной системы")</f>
+        <v>Симпатический и парасимпатический отделы нервной системы</v>
       </c>
       <c r="F66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неполное доминирование")</f>
-        <v>Неполное доминирование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кроссинговер")</f>
+        <v>Кроссинговер</v>
       </c>
       <c r="H66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл беззубки")</f>
@@ -4226,28 +4226,28 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экологические группы птиц")</f>
-        <v>Экологические группы птиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение яйца")</f>
+        <v>Строение яйца</v>
       </c>
       <c r="D67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
-        <v>166</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рефлекторная дуга")</f>
-        <v>Рефлекторная дуга</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рефлексы")</f>
+        <v>Рефлексы</v>
       </c>
       <c r="F67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кроссинговер")</f>
-        <v>Кроссинговер</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сцепление с полом")</f>
+        <v>Сцепление с полом</v>
       </c>
       <c r="H67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
+        <v>367</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл ришты")</f>
@@ -4284,28 +4284,28 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение яйца")</f>
-        <v>Строение яйца</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у птиц")</f>
+        <v>Приспособление к среде у птиц</v>
       </c>
       <c r="D68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Симпатический и парасимпатический отделы нервной системы")</f>
-        <v>Симпатический и парасимпатический отделы нервной системы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Торможение")</f>
+        <v>Торможение</v>
       </c>
       <c r="F68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сцепление с полом")</f>
-        <v>Сцепление с полом</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодейсвия генов")</f>
+        <v>Взаимодейсвия генов</v>
       </c>
       <c r="H68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
-        <v>367</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368.0)</f>
+        <v>368</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл острицы")</f>
@@ -4342,28 +4342,28 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приспособление к среде у птиц")</f>
-        <v>Приспособление к среде у птиц</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перья")</f>
+        <v>Перья</v>
       </c>
       <c r="D69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рефлексы")</f>
-        <v>Рефлексы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высшая нервная деятельность")</f>
+        <v>Высшая нервная деятельность</v>
       </c>
       <c r="F69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
+        <v>270</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимодейсвия генов")</f>
-        <v>Взаимодейсвия генов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Родословные")</f>
+        <v>Родословные</v>
       </c>
       <c r="H69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368.0)</f>
-        <v>368</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="I69" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Множественный аллелизм")</f>
@@ -4400,28 +4400,28 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перья")</f>
-        <v>Перья</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение млекопитающих")</f>
+        <v>Внешнее строение млекопитающих</v>
       </c>
       <c r="D70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),170.0)</f>
+        <v>170</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Торможение")</f>
-        <v>Торможение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение анализатора")</f>
+        <v>Строение анализатора</v>
       </c>
       <c r="F70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Родословные")</f>
-        <v>Родословные</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы селекции и биотехнологии")</f>
+        <v>Методы селекции и биотехнологии</v>
       </c>
       <c r="H70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.0)</f>
+        <v>370</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первичноротые и вторичноротые")</f>
@@ -4458,28 +4458,28 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внешнее строение млекопитающих")</f>
-        <v>Внешнее строение млекопитающих</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение млекопитающих")</f>
+        <v>Внутренние строение млекопитающих</v>
       </c>
       <c r="D71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),170.0)</f>
-        <v>170</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),171.0)</f>
+        <v>171</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высшая нервная деятельность")</f>
-        <v>Высшая нервная деятельность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение глаза")</f>
+        <v>Строение глаза</v>
       </c>
       <c r="F71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
-        <v>270</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
+        <v>272</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы селекции и биотехнологии")</f>
-        <v>Методы селекции и биотехнологии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плазматическая мембрана")</f>
+        <v>Плазматическая мембрана</v>
       </c>
       <c r="H71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.0)</f>
-        <v>370</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямое и непрямое развитие")</f>
@@ -4516,28 +4516,28 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние строение млекопитающих")</f>
-        <v>Внутренние строение млекопитающих</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие млекопитающих (отряды, классификация)")</f>
+        <v>Разнообразие млекопитающих (отряды, классификация)</v>
       </c>
       <c r="D72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),171.0)</f>
-        <v>171</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение анализатора")</f>
-        <v>Строение анализатора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение уха, органа равновесия")</f>
+        <v>Строение уха, органа равновесия</v>
       </c>
       <c r="F72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плазматическая мембрана")</f>
-        <v>Плазматическая мембрана</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клеточная стенка ")</f>
+        <v>Клеточная стенка </v>
       </c>
       <c r="H72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
+        <v>372</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бактериальные заболевания")</f>
@@ -4574,28 +4574,28 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разнообразие млекопитающих (отряды, классификация)")</f>
-        <v>Разнообразие млекопитающих (отряды, классификация)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экологические группы млекопитающих")</f>
+        <v>Экологические группы млекопитающих</v>
       </c>
       <c r="D73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
+        <v>173</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение глаза")</f>
-        <v>Строение глаза</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение органа вкуса, обоняния")</f>
+        <v>Строение органа вкуса, обоняния</v>
       </c>
       <c r="F73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
-        <v>272</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
+        <v>274</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клеточная стенка ")</f>
-        <v>Клеточная стенка </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антипараллельность")</f>
+        <v>Антипараллельность</v>
       </c>
       <c r="H73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
-        <v>372</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Значение кишечнополостных")</f>
@@ -4632,37 +4632,31 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экологические группы млекопитающих")</f>
-        <v>Экологические группы млекопитающих</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция систем животных")</f>
+        <v>Эволюция систем животных</v>
       </c>
       <c r="D74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
-        <v>173</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение уха, органа равновесия")</f>
-        <v>Строение уха, органа равновесия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболевания органов чувств")</f>
+        <v>Заболевания органов чувств</v>
       </c>
       <c r="F74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
+        <v>275</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антипараллельность")</f>
-        <v>Антипараллельность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарное деление клетки")</f>
+        <v>Бинарное деление клетки</v>
       </c>
       <c r="H74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
-      </c>
-      <c r="I74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антибиотики (работы А.Флеминга)")</f>
-        <v>Антибиотики (работы А.Флеминга)</v>
-      </c>
-      <c r="J74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.0)</f>
+        <v>374</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -4689,29 +4683,23 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
         <v>74</v>
       </c>
-      <c r="C75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция систем животных")</f>
-        <v>Эволюция систем животных</v>
-      </c>
-      <c r="D75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
-      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение органа вкуса, обоняния")</f>
-        <v>Строение органа вкуса, обоняния</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оказание первой помощи")</f>
+        <v>Оказание первой помощи</v>
       </c>
       <c r="F75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
-        <v>274</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарное деление клетки")</f>
-        <v>Бинарное деление клетки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кроссинговер между Х и У хромосомами")</f>
+        <v>Кроссинговер между Х и У хромосомами</v>
       </c>
       <c r="H75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.0)</f>
-        <v>374</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4744,20 +4732,20 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Заболевания органов чувств")</f>
-        <v>Заболевания органов чувств</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половая система")</f>
+        <v>Половая система</v>
       </c>
       <c r="F76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
-        <v>275</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кроссинговер между Х и У хромосомами")</f>
-        <v>Кроссинговер между Х и У хромосомами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лабораторные инструменты и посуда")</f>
+        <v>Лабораторные инструменты и посуда</v>
       </c>
       <c r="H76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4784,20 +4772,20 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Оказание первой помощи")</f>
-        <v>Оказание первой помощи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гигиена здоровья")</f>
+        <v>Гигиена здоровья</v>
       </c>
       <c r="F77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лабораторные инструменты и посуда")</f>
-        <v>Лабораторные инструменты и посуда</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Медицинские приборы")</f>
+        <v>Медицинские приборы</v>
       </c>
       <c r="H77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
-        <v>376</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4823,22 +4811,10 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половая система")</f>
-        <v>Половая система</v>
-      </c>
-      <c r="F78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
-      </c>
-      <c r="G78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Медицинские приборы")</f>
-        <v>Медицинские приборы</v>
-      </c>
-      <c r="H78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
-      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4863,14 +4839,8 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гигиена здоровья")</f>
-        <v>Гигиена здоровья</v>
-      </c>
-      <c r="F79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
-      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
